--- a/biology/Botanique/Blondin_Park/Blondin_Park.xlsx
+++ b/biology/Botanique/Blondin_Park/Blondin_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Blondin Park est un parc londonien, situé à Brentford, au sud ouest de Londres.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dispose de plusieurs entrées, sur Boston Manor Road (A3002), et Windmill Road (B425) au sud et à l'est.
 Il est desservi par les stations de métro Northfields et Boston Manor.
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc a été créé en 1928 sur les terres de la Boston Farm[1], dont le bâtiment principal était situé à l'angle de Boston Road (A3002) et Swyncombe Avenue[2]. Cette ferme appartenait à la famille Clitherow, propriétaire de la Boston Manor House[3], et a été vendue en 1921 par le Colonel John Bourchier Stracey-Clitherow, de Hotham Hall, (1853-1931) au Brentford Urban District Council.
-Originellement appelé Northfields Recreation Ground, il a été renommé en 1957 d’après le funambule Charles Blondin qui habitait Niagara House, dans les environs, une ancienne ferme du manoir de Coldhawe, détruit en 1858. Ce bâtiment fut à son tour détruit en 1934 puis reconstruit sous le même nom[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc a été créé en 1928 sur les terres de la Boston Farm, dont le bâtiment principal était situé à l'angle de Boston Road (A3002) et Swyncombe Avenue. Cette ferme appartenait à la famille Clitherow, propriétaire de la Boston Manor House, et a été vendue en 1921 par le Colonel John Bourchier Stracey-Clitherow, de Hotham Hall, (1853-1931) au Brentford Urban District Council.
+Originellement appelé Northfields Recreation Ground, il a été renommé en 1957 d’après le funambule Charles Blondin qui habitait Niagara House, dans les environs, une ancienne ferme du manoir de Coldhawe, détruit en 1858. Ce bâtiment fut à son tour détruit en 1934 puis reconstruit sous le même nom.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa surface est de 8,5 hectares, et la réserve naturelle fait 2,3 hectares. Une grande partie du parc est consacrée à des jardins familiaux, créés sur les anciens terrains des horticulteurs Steel, qui étaient établis ici depuis au moins 1853[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa surface est de 8,5 hectares, et la réserve naturelle fait 2,3 hectares. Une grande partie du parc est consacrée à des jardins familiaux, créés sur les anciens terrains des horticulteurs Steel, qui étaient établis ici depuis au moins 1853.
 En 1997, lui a été adjointe une réserve naturelle, la Blondin Nature Area, formée du verger - datant au moins de 1810 - en libre accès, d'une prairie ensemencée de fleurs sauvages, et d'un bassin peuplé de batraciens.
 </t>
         </is>
